--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.03588753900697</v>
+        <v>69.23157766123602</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.03901757661193</v>
+        <v>94.72569883771286</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.59108326756711</v>
+        <v>85.68521108901813</v>
       </c>
       <c r="AD2" t="n">
-        <v>57035.88753900697</v>
+        <v>69231.57766123602</v>
       </c>
       <c r="AE2" t="n">
-        <v>78039.01757661192</v>
+        <v>94725.69883771286</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822355635618296e-06</v>
+        <v>8.922620488182424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70591.08326756711</v>
+        <v>85685.21108901812</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.81975458377911</v>
+        <v>66.58355622504723</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.00680669838486</v>
+        <v>91.10255908626033</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.84826233982238</v>
+        <v>82.40785871033449</v>
       </c>
       <c r="AD2" t="n">
-        <v>54819.75458377911</v>
+        <v>66583.55622504723</v>
       </c>
       <c r="AE2" t="n">
-        <v>75006.80669838487</v>
+        <v>91102.55908626033</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092996306710146e-06</v>
+        <v>9.708036974925747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>67848.26233982238</v>
+        <v>82407.85871033449</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.47638240178877</v>
+        <v>59.93991440153056</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.69576914604588</v>
+        <v>82.01243524653785</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.23497995037066</v>
+        <v>74.18528353180331</v>
       </c>
       <c r="AD2" t="n">
-        <v>49476.38240178877</v>
+        <v>59939.91440153056</v>
       </c>
       <c r="AE2" t="n">
-        <v>67695.76914604587</v>
+        <v>82012.43524653785</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383398429356582e-06</v>
+        <v>1.146522980336422e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61234.97995037066</v>
+        <v>74185.2835318033</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.26548504252705</v>
+        <v>62.23737059727829</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.14369830874071</v>
+        <v>85.15591617017228</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.44928218946883</v>
+        <v>77.02875504799026</v>
       </c>
       <c r="AD2" t="n">
-        <v>51265.48504252706</v>
+        <v>62237.37059727829</v>
       </c>
       <c r="AE2" t="n">
-        <v>70143.69830874071</v>
+        <v>85155.91617017228</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414257308810575e-06</v>
+        <v>1.099281421706471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.098958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63449.28218946883</v>
+        <v>77028.75504799026</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.25922197870497</v>
+        <v>68.35219857269168</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.03039655785537</v>
+        <v>93.52249357329974</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.7285481846314</v>
+        <v>84.596838046331</v>
       </c>
       <c r="AD2" t="n">
-        <v>48259.22197870497</v>
+        <v>68352.19857269168</v>
       </c>
       <c r="AE2" t="n">
-        <v>66030.39655785536</v>
+        <v>93522.49357329974</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196040556558773e-06</v>
+        <v>1.157056740781715e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.509114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>59728.5481846314</v>
+        <v>84596.838046331</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.44194122704594</v>
+        <v>67.31926106318866</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.85810991263958</v>
+        <v>92.1091829028117</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.61831837012045</v>
+        <v>83.31841176263991</v>
       </c>
       <c r="AD2" t="n">
-        <v>55441.94122704594</v>
+        <v>67319.26106318866</v>
       </c>
       <c r="AE2" t="n">
-        <v>75858.10991263957</v>
+        <v>92109.18290281169</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.009676880370955e-06</v>
+        <v>9.472115036945153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68618.31837012045</v>
+        <v>83318.41176263991</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.81677599281828</v>
+        <v>67.41595396241556</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.42502244062621</v>
+        <v>92.24148239332349</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.18095012350251</v>
+        <v>83.43808477546082</v>
       </c>
       <c r="AD2" t="n">
-        <v>47816.77599281828</v>
+        <v>67415.95396241556</v>
       </c>
       <c r="AE2" t="n">
-        <v>65425.02244062621</v>
+        <v>92241.48239332349</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.961793995691256e-06</v>
+        <v>1.137524392586241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.756510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59180.9501235025</v>
+        <v>83438.08477546083</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.14897496676521</v>
+        <v>64.54435514197309</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.72077231679306</v>
+        <v>88.31243420119718</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.78040387113957</v>
+        <v>79.88401942833602</v>
       </c>
       <c r="AD2" t="n">
-        <v>53148.97496676521</v>
+        <v>64544.35514197309</v>
       </c>
       <c r="AE2" t="n">
-        <v>72720.77231679305</v>
+        <v>88312.43420119717</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.255997158188828e-06</v>
+        <v>1.030168179251532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>65780.40387113957</v>
+        <v>79884.01942833602</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.23933529490132</v>
+        <v>65.88530206945677</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.21265142105084</v>
+        <v>90.14717694578269</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.12990012755293</v>
+        <v>81.54365690045648</v>
       </c>
       <c r="AD2" t="n">
-        <v>54239.33529490131</v>
+        <v>65885.30206945677</v>
       </c>
       <c r="AE2" t="n">
-        <v>74212.65142105083</v>
+        <v>90147.17694578269</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.168331311473532e-06</v>
+        <v>9.93716653742824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67129.90012755293</v>
+        <v>81543.65690045648</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.03341815228379</v>
+        <v>68.12636310020423</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.66739473586992</v>
+        <v>93.21349551668469</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.35036618566035</v>
+        <v>84.3173303305577</v>
       </c>
       <c r="AD2" t="n">
-        <v>56033.4181522838</v>
+        <v>68126.36310020422</v>
       </c>
       <c r="AE2" t="n">
-        <v>76667.39473586992</v>
+        <v>93213.49551668469</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.979487349882935e-06</v>
+        <v>9.276407256521891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>69350.36618566034</v>
+        <v>84317.3303305577</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.89592196017117</v>
+        <v>63.01649495783111</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.00628991237483</v>
+        <v>86.22194849282103</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.22954926110729</v>
+        <v>77.99304674195149</v>
       </c>
       <c r="AD2" t="n">
-        <v>51895.92196017117</v>
+        <v>63016.49495783111</v>
       </c>
       <c r="AE2" t="n">
-        <v>71006.28991237482</v>
+        <v>86221.94849282103</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375029418174666e-06</v>
+        <v>1.077423225158674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>64229.5492611073</v>
+        <v>77993.04674195149</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.0283551604686</v>
+        <v>60.67369367589154</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.45100262579074</v>
+        <v>83.01642442177494</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.91813500678574</v>
+        <v>75.09345338926374</v>
       </c>
       <c r="AD2" t="n">
-        <v>50028.3551604686</v>
+        <v>60673.69367589154</v>
       </c>
       <c r="AE2" t="n">
-        <v>68451.00262579073</v>
+        <v>83016.42442177494</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435139729780008e-06</v>
+        <v>1.137065221701674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61918.13500678574</v>
+        <v>75093.45338926374</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.90048985583203</v>
+        <v>69.26066806102754</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.90780755808225</v>
+        <v>94.76550160608546</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.522220310451</v>
+        <v>85.7212151370408</v>
       </c>
       <c r="AD2" t="n">
-        <v>48900.48985583203</v>
+        <v>69260.66806102755</v>
       </c>
       <c r="AE2" t="n">
-        <v>66907.80755808225</v>
+        <v>94765.50160608547</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>1.152224030260427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60522.220310451</v>
+        <v>85721.2151370408</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.37794463647767</v>
+        <v>76.31744797253798</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.5070351878652</v>
+        <v>104.4208992041668</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.01443393486937</v>
+        <v>94.45511513979997</v>
       </c>
       <c r="AD2" t="n">
-        <v>57377.94463647767</v>
+        <v>76317.44797253798</v>
       </c>
       <c r="AE2" t="n">
-        <v>78507.0351878652</v>
+        <v>104420.8992041668</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50895758766578e-06</v>
+        <v>1.072467719964498e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71014.43393486938</v>
+        <v>94455.11513979998</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.72866719706066</v>
+        <v>65.25201300676513</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.51393280049916</v>
+        <v>89.2806829114668</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.49786623148874</v>
+        <v>80.75985984064339</v>
       </c>
       <c r="AD2" t="n">
-        <v>53728.66719706066</v>
+        <v>65252.01300676513</v>
       </c>
       <c r="AE2" t="n">
-        <v>73513.93280049917</v>
+        <v>89280.68291146679</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201831043570943e-06</v>
+        <v>1.009455989716737e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66497.86623148875</v>
+        <v>80759.85984064339</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.99525926007617</v>
+        <v>67.98217947275153</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.61518405609995</v>
+        <v>93.01621711667131</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.30313841988946</v>
+        <v>84.13887990415957</v>
       </c>
       <c r="AD2" t="n">
-        <v>55995.25926007617</v>
+        <v>67982.17947275152</v>
       </c>
       <c r="AE2" t="n">
-        <v>76615.18405609996</v>
+        <v>93016.21711667131</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.940173704385702e-06</v>
+        <v>9.269703550026301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>69303.13841988947</v>
+        <v>84138.87990415956</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.22324391360695</v>
+        <v>94.53323060271455</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.97780800277636</v>
+        <v>129.3445366223746</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.19957509867811</v>
+        <v>117.0000755833668</v>
       </c>
       <c r="AD2" t="n">
-        <v>67223.24391360694</v>
+        <v>94533.23060271455</v>
       </c>
       <c r="AE2" t="n">
-        <v>91977.80800277635</v>
+        <v>129344.5366223746</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.692246460945228e-06</v>
+        <v>9.234028195969299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83199.57509867811</v>
+        <v>117000.0755833668</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.72074907827751</v>
+        <v>61.53478556117134</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.39836653040024</v>
+        <v>84.19460832790702</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.7750838299732</v>
+        <v>76.15919307698644</v>
       </c>
       <c r="AD2" t="n">
-        <v>50720.74907827751</v>
+        <v>61534.78556117134</v>
       </c>
       <c r="AE2" t="n">
-        <v>69398.36653040024</v>
+        <v>84194.60832790702</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.407964983981242e-06</v>
+        <v>1.113653283360025e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>62775.0838299732</v>
+        <v>76159.19307698644</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.56266618742973</v>
+        <v>63.82406302475417</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.91855877878886</v>
+        <v>87.32689874937327</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.05475246728847</v>
+        <v>78.99254209682616</v>
       </c>
       <c r="AD2" t="n">
-        <v>52562.66618742974</v>
+        <v>63824.06302475418</v>
       </c>
       <c r="AE2" t="n">
-        <v>71918.55877878887</v>
+        <v>87326.89874937327</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.302126395587667e-06</v>
+        <v>1.050448857360264e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>65054.75246728846</v>
+        <v>78992.54209682616</v>
       </c>
     </row>
   </sheetData>
